--- a/biology/Botanique/Orchis_grenouille/Orchis_grenouille.xlsx
+++ b/biology/Botanique/Orchis_grenouille/Orchis_grenouille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylorhiza viridis
 L'Orchis grenouille, Dactylorhiza viridis, est une espèce de petites orchidées terrestre d'Europe, de Sibérie et d'Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coeloglossum viride Hartman, 1820
 Satyrium viride L.
@@ -552,12 +566,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur: 10 à 30 cm.
 le système souterrain est formé de tubercules palmés.
 Inflorescence en épi simple de 5 à 20 fleurs à odeur de prune.
-Labelle trilobé de teinte vert-jaune à brun voire pourpre en altitude, en forme de languette; éperon très court[2].
+Labelle trilobé de teinte vert-jaune à brun voire pourpre en altitude, en forme de languette; éperon très court.
 			Plante entière.
 			Détail d'une fleur.
 </t>
@@ -588,9 +604,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'orchis grenouille a une répartition dispersée et n'est nulle part abondant[3]. L'espèce est classée "NT" : Near Threatened, quasi menacé[4]. Cette plante est protégée dans la plupart des régions centre et nord de France métropolitaine. En Belgique et dans les régions voisines, elle est signalée comme rare à très rare et en forte régression[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orchis grenouille a une répartition dispersée et n'est nulle part abondant. L'espèce est classée "NT" : Near Threatened, quasi menacé. Cette plante est protégée dans la plupart des régions centre et nord de France métropolitaine. En Belgique et dans les régions voisines, elle est signalée comme rare à très rare et en forte régression.
 </t>
         </is>
       </c>
